--- a/database/industries/felezat/fasmin/product/quarterly_seprated.xlsx
+++ b/database/industries/felezat/fasmin/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBA13C9-1D9D-4C39-897E-F4BFE9418A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A442980-4F7E-45ED-A5D9-3A811C285E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -679,12 +679,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -699,7 +699,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -748,7 +748,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -797,7 +797,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -834,7 +834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -849,7 +849,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -944,7 +944,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -983,7 +983,7 @@
         <v>9570</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>-718</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>-9637</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>26</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>10221</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>24</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>29</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>10221</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>21</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>24</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>32</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>33</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>35</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>36</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>11284</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1841,7 +1841,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1856,7 +1856,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1871,7 +1871,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>37</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1923,7 +1923,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>58396</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>19</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>224566</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>20</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>8017759</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>21</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>-1929</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>22</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>23</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>154913</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>24</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>25</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>26</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>8453705</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>40</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>20</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>8288556</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>28</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>22</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>24</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
         <v>29</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>8288556</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>41</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>28</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>21</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>24</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>31</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="16" t="s">
         <v>32</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>33</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="16" t="s">
         <v>35</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
         <v>36</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>16744190</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2917,7 +2917,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2932,7 +2932,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2947,7 +2947,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>42</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2999,7 +2999,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>43</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>16</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>19</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>248139227</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>20</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>837801358</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>21</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>2686630</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>22</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>23</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>688502222</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>24</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>25</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>45</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>16</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>20</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>810933960</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>28</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>22</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>24</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>46</v>
       </c>
@@ -3557,7 +3557,7 @@
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>16</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>28</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>21</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>24</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>31</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3767,7 +3767,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3782,7 +3782,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3797,7 +3797,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>47</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3849,7 +3849,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>48</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>16</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>19</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>-309064</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>20</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>-5186829</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>21</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>47793</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>22</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>23</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>-112409</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>24</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>-223</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>25</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
         <v>49</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>-5560732</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>50</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>16</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>20</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>-5275856</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>28</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>22</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>24</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="16" t="s">
         <v>51</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>-5275856</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>52</v>
       </c>
@@ -4481,7 +4481,7 @@
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>16</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>28</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>21</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>24</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>31</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="16" t="s">
         <v>53</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="14" t="s">
         <v>33</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="16" t="s">
         <v>35</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="14" t="s">
         <v>36</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>-10836588</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4843,7 +4843,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4858,7 +4858,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4873,7 +4873,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B130" s="7" t="s">
         <v>54</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4925,7 +4925,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>55</v>
       </c>
@@ -4942,7 +4942,7 @@
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>16</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>58396</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="12" t="s">
         <v>19</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>-84498</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>20</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>2830930</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="12" t="s">
         <v>21</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>22</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="12" t="s">
         <v>23</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>42504</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>24</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>-223</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="12" t="s">
         <v>25</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="s">
         <v>56</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>2892973</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>57</v>
       </c>
@@ -5308,7 +5308,7 @@
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>16</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="12" t="s">
         <v>20</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>3012700</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>28</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="12" t="s">
         <v>22</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>24</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="16" t="s">
         <v>58</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>3012700</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>59</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="M149" s="9"/>
       <c r="N149" s="9"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>16</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="12" t="s">
         <v>28</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>21</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="12" t="s">
         <v>24</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>31</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="16" t="s">
         <v>60</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="14" t="s">
         <v>36</v>
       </c>
